--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf1-Fgfr2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Fgf1-Fgfr2.xlsx
@@ -91,7 +91,7 @@
     <t>Fgfr2</t>
   </si>
   <si>
-    <t>Inflammatory-Mac</t>
+    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -537,46 +537,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H2">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I2">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J2">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N2">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O2">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P2">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q2">
-        <v>0.6835340387156666</v>
+        <v>0.2508609347957778</v>
       </c>
       <c r="R2">
-        <v>6.151806348440999</v>
+        <v>2.257748413162</v>
       </c>
       <c r="S2">
-        <v>0.01138294094195493</v>
+        <v>0.01296964943462309</v>
       </c>
       <c r="T2">
-        <v>0.01513196176547839</v>
+        <v>0.01444610062672489</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H3">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I3">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J3">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>11.290081</v>
       </c>
       <c r="O3">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P3">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q3">
-        <v>5.209038897488556</v>
+        <v>3.302588293107889</v>
       </c>
       <c r="R3">
-        <v>46.881350077397</v>
+        <v>29.723294637971</v>
       </c>
       <c r="S3">
-        <v>0.08674649509169971</v>
+        <v>0.1707456460822393</v>
       </c>
       <c r="T3">
-        <v>0.1153168283759383</v>
+        <v>0.1901831500776309</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,7 +652,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -661,46 +661,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H4">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I4">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J4">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N4">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O4">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P4">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q4">
-        <v>0.0005638086682222222</v>
+        <v>0.09682247690699999</v>
       </c>
       <c r="R4">
-        <v>0.005074278014</v>
+        <v>0.580934861442</v>
       </c>
       <c r="S4">
-        <v>9.389145835362655E-06</v>
+        <v>0.005005775745426328</v>
       </c>
       <c r="T4">
-        <v>1.248150161857976E-05</v>
+        <v>0.003717085312534975</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,7 +714,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.384145666666667</v>
+        <v>0.8775636666666666</v>
       </c>
       <c r="H5">
-        <v>4.152437</v>
+        <v>2.632691</v>
       </c>
       <c r="I5">
-        <v>0.1014617184198512</v>
+        <v>0.1887436506618166</v>
       </c>
       <c r="J5">
-        <v>0.1334061399754118</v>
+        <v>0.2083714858314108</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1441585</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N5">
-        <v>0.288317</v>
+        <v>0.001493</v>
       </c>
       <c r="O5">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="P5">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
       <c r="Q5">
-        <v>0.1995363630881667</v>
+        <v>0.0004367341847777778</v>
       </c>
       <c r="R5">
-        <v>1.197218178529</v>
+        <v>0.003930607663</v>
       </c>
       <c r="S5">
-        <v>0.003322893240361197</v>
+        <v>2.257939952784955E-05</v>
       </c>
       <c r="T5">
-        <v>0.002944868332376482</v>
+        <v>2.514981452001123E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,46 +785,46 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H6">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I6">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J6">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N6">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O6">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P6">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q6">
-        <v>1.213855692798667</v>
+        <v>0.7026565719457778</v>
       </c>
       <c r="R6">
-        <v>10.924701235188</v>
+        <v>6.323909147512</v>
       </c>
       <c r="S6">
-        <v>0.02021442515012869</v>
+        <v>0.0363277344018896</v>
       </c>
       <c r="T6">
-        <v>0.02687213348840751</v>
+        <v>0.04046324531406917</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,16 +847,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H7">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I7">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J7">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,22 +871,22 @@
         <v>11.290081</v>
       </c>
       <c r="O7">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P7">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q7">
-        <v>9.250485215932889</v>
+        <v>9.250485215932891</v>
       </c>
       <c r="R7">
-        <v>83.25436694339599</v>
+        <v>83.25436694339601</v>
       </c>
       <c r="S7">
-        <v>0.1540489879556569</v>
+        <v>0.4782552151792133</v>
       </c>
       <c r="T7">
-        <v>0.2047856883069534</v>
+        <v>0.5326992837054783</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,7 +900,7 @@
         <v>24</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -909,46 +909,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H8">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I8">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J8">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N8">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O8">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P8">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q8">
-        <v>0.001001241083555555</v>
+        <v>0.271197864132</v>
       </c>
       <c r="R8">
-        <v>0.009011169751999998</v>
+        <v>1.627187184792</v>
       </c>
       <c r="S8">
-        <v>1.667373894676334E-05</v>
+        <v>0.01402107995840006</v>
       </c>
       <c r="T8">
-        <v>2.216530697265122E-05</v>
+        <v>0.01041148326048487</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,7 +962,7 @@
         <v>24</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -971,46 +971,46 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>2.458038666666666</v>
+        <v>2.458038666666667</v>
       </c>
       <c r="H9">
-        <v>7.374115999999999</v>
+        <v>7.374116000000001</v>
       </c>
       <c r="I9">
-        <v>0.1801810554109115</v>
+        <v>0.5286672739959656</v>
       </c>
       <c r="J9">
-        <v>0.2369096391566985</v>
+        <v>0.5836444564186148</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M9">
-        <v>0.1441585</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N9">
-        <v>0.288317</v>
+        <v>0.001493</v>
       </c>
       <c r="O9">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="P9">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
       <c r="Q9">
-        <v>0.3543471671286667</v>
+        <v>0.001223283909777778</v>
       </c>
       <c r="R9">
-        <v>2.126083002771999</v>
+        <v>0.011009555188</v>
       </c>
       <c r="S9">
-        <v>0.005900968566179172</v>
+        <v>6.324445646249708E-05</v>
       </c>
       <c r="T9">
-        <v>0.005229652054364878</v>
+        <v>7.044413858255569E-05</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,46 +1033,46 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H10">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I10">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J10">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M10">
-        <v>0.493831</v>
+        <v>0.2858606666666667</v>
       </c>
       <c r="N10">
-        <v>1.481493</v>
+        <v>0.857582</v>
       </c>
       <c r="O10">
-        <v>0.1121895146192186</v>
+        <v>0.0687156860066334</v>
       </c>
       <c r="P10">
-        <v>0.1134277760249069</v>
+        <v>0.06932858672617494</v>
       </c>
       <c r="Q10">
-        <v>4.839476638983999</v>
+        <v>0.375591758212</v>
       </c>
       <c r="R10">
-        <v>29.036859833904</v>
+        <v>2.253550549272</v>
       </c>
       <c r="S10">
-        <v>0.08059214852713495</v>
+        <v>0.0194183021701207</v>
       </c>
       <c r="T10">
-        <v>0.07142368077102101</v>
+        <v>0.01441924078538088</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H11">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I11">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J11">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>11.290081</v>
       </c>
       <c r="O11">
-        <v>0.85496773012202</v>
+        <v>0.9046431256549901</v>
       </c>
       <c r="P11">
-        <v>0.8644042050627692</v>
+        <v>0.9127119736118995</v>
       </c>
       <c r="Q11">
-        <v>36.88041944966133</v>
+        <v>4.944671615246</v>
       </c>
       <c r="R11">
-        <v>221.282516697968</v>
+        <v>29.668029691476</v>
       </c>
       <c r="S11">
-        <v>0.6141722470746634</v>
+        <v>0.2556422643935373</v>
       </c>
       <c r="T11">
-        <v>0.5443016883798775</v>
+        <v>0.1898295398287904</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1148,7 +1148,7 @@
         <v>24</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>2</v>
@@ -1157,46 +1157,46 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H12">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I12">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J12">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L12">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M12">
-        <v>0.0004073333333333333</v>
+        <v>0.110331</v>
       </c>
       <c r="N12">
-        <v>0.001222</v>
+        <v>0.220662</v>
       </c>
       <c r="O12">
-        <v>9.253880164447964E-05</v>
+        <v>0.02652155835639462</v>
       </c>
       <c r="P12">
-        <v>9.356017362379453E-05</v>
+        <v>0.01783874265571248</v>
       </c>
       <c r="Q12">
-        <v>0.003991811269333333</v>
+        <v>0.144963680238</v>
       </c>
       <c r="R12">
-        <v>0.023950867616</v>
+        <v>0.579854720952</v>
       </c>
       <c r="S12">
-        <v>6.647591686235366E-05</v>
+        <v>0.007494702652568222</v>
       </c>
       <c r="T12">
-        <v>5.891336503256355E-05</v>
+        <v>0.003710174082692635</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1210,7 +1210,7 @@
         <v>24</v>
       </c>
       <c r="D13" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.799863999999999</v>
+        <v>1.313898</v>
       </c>
       <c r="H13">
-        <v>19.599728</v>
+        <v>2.627796</v>
       </c>
       <c r="I13">
-        <v>0.7183572261692374</v>
+        <v>0.2825890753422177</v>
       </c>
       <c r="J13">
-        <v>0.6296842208678898</v>
+        <v>0.2079840577499744</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L13">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M13">
-        <v>0.1441585</v>
+        <v>0.0004976666666666667</v>
       </c>
       <c r="N13">
-        <v>0.288317</v>
+        <v>0.001493</v>
       </c>
       <c r="O13">
-        <v>0.03275021645711715</v>
+        <v>0.0001196299819817856</v>
       </c>
       <c r="P13">
-        <v>0.02207445873870014</v>
+        <v>0.0001206970062130259</v>
       </c>
       <c r="Q13">
-        <v>1.412733694444</v>
+        <v>0.000653883238</v>
       </c>
       <c r="R13">
-        <v>5.650934777776</v>
+        <v>0.003923299428</v>
       </c>
       <c r="S13">
-        <v>0.02352635465057678</v>
+        <v>3.380612599143896E-05</v>
       </c>
       <c r="T13">
-        <v>0.01389993835195878</v>
+        <v>2.5103053110459E-05</v>
       </c>
     </row>
   </sheetData>
